--- a/Civilworks cost/Analysis Template/AnalysisInput.xlsx
+++ b/Civilworks cost/Analysis Template/AnalysisInput.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Block Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
   <si>
     <t>Sand</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>40-210-03</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -663,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -802,6 +805,32 @@
         <v>4</v>
       </c>
       <c r="H5" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1471,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Civilworks cost/Analysis Template/AnalysisInput.xlsx
+++ b/Civilworks cost/Analysis Template/AnalysisInput.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>Sand</t>
   </si>
@@ -271,7 +271,10 @@
     <t>40-210-03</t>
   </si>
   <si>
-    <t>test</t>
+    <t>size1</t>
+  </si>
+  <si>
+    <t>size2</t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -810,7 +813,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -831,6 +834,32 @@
         <v>5</v>
       </c>
       <c r="H6" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>

--- a/Civilworks cost/Analysis Template/AnalysisInput.xlsx
+++ b/Civilworks cost/Analysis Template/AnalysisInput.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
   <si>
     <t>Sand</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>size2</t>
+  </si>
+  <si>
+    <t>Fuse Block1</t>
+  </si>
+  <si>
+    <t>Fuse Block2</t>
+  </si>
+  <si>
+    <t>Fuse Block3</t>
+  </si>
+  <si>
+    <t>Fuse Block4</t>
   </si>
 </sst>
 </file>
@@ -669,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -860,6 +872,110 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>

--- a/Civilworks cost/Analysis Template/AnalysisInput.xlsx
+++ b/Civilworks cost/Analysis Template/AnalysisInput.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
   <si>
     <t>Sand</t>
   </si>
@@ -277,16 +277,19 @@
     <t>size2</t>
   </si>
   <si>
-    <t>Fuse Block1</t>
-  </si>
-  <si>
-    <t>Fuse Block2</t>
-  </si>
-  <si>
-    <t>Fuse Block3</t>
-  </si>
-  <si>
-    <t>Fuse Block4</t>
+    <t>40-190-05</t>
+  </si>
+  <si>
+    <t>40-190-15</t>
+  </si>
+  <si>
+    <t>40-190-35</t>
+  </si>
+  <si>
+    <t>40-190-40</t>
+  </si>
+  <si>
+    <t>40-190-50</t>
   </si>
 </sst>
 </file>
@@ -681,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -886,7 +889,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -912,7 +915,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -976,6 +979,32 @@
         <v>5</v>
       </c>
       <c r="H11" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -990,7 +1019,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Civilworks cost/Analysis Template/AnalysisInput.xlsx
+++ b/Civilworks cost/Analysis Template/AnalysisInput.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Block Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>Sand</t>
   </si>
@@ -259,37 +259,13 @@
     <t>vat_rate</t>
   </si>
   <si>
-    <t>40-150-03</t>
-  </si>
-  <si>
-    <t>40-170-03</t>
-  </si>
-  <si>
-    <t>40-190-03</t>
-  </si>
-  <si>
-    <t>40-210-03</t>
-  </si>
-  <si>
-    <t>size1</t>
-  </si>
-  <si>
-    <t>size2</t>
-  </si>
-  <si>
-    <t>40-190-05</t>
-  </si>
-  <si>
-    <t>40-190-15</t>
-  </si>
-  <si>
-    <t>40-190-35</t>
-  </si>
-  <si>
-    <t>40-190-40</t>
-  </si>
-  <si>
-    <t>40-190-50</t>
+    <t>28-120-20</t>
+  </si>
+  <si>
+    <t>28-200-10</t>
+  </si>
+  <si>
+    <t>40-140-50</t>
   </si>
 </sst>
 </file>
@@ -684,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -727,13 +703,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -749,40 +725,40 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
@@ -791,220 +767,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="1">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="1">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="1">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="1">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="1">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="1">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1022,10 +790,10 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1318,14 +1086,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1678,18 +1446,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2" customHeight="1">
+    <row r="1" spans="1:5" ht="13.15" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +1673,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
